--- a/ReporteCliente.xlsx
+++ b/ReporteCliente.xlsx
@@ -12,19 +12,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Reporte del Cliente</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,8 +56,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -98,12 +110,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/ReporteCliente.xlsx
+++ b/ReporteCliente.xlsx
@@ -122,6 +122,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="B2:D4"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/ReporteCliente.xlsx
+++ b/ReporteCliente.xlsx
@@ -12,9 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Reporte del Cliente</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Documento</t>
+  </si>
+  <si>
+    <t>WhatsApp</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Localidad</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Notas</t>
   </si>
 </sst>
 </file>
@@ -22,7 +49,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -35,16 +62,32 @@
       <sz val="14.0"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -52,15 +95,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -110,7 +166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C2"/>
+  <dimension ref="A2:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -119,6 +175,35 @@
     <row r="2">
       <c r="B2" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/ReporteCliente.xlsx
+++ b/ReporteCliente.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\criss\OneDrive\Documentos\NetBeansProjects\AplicacionJavaStock\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31C6869-4EE1-4D81-83A1-3B288BC50F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Clientes" r:id="rId3" sheetId="1"/>
+    <sheet name="Clientes" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Reporte del Cliente</t>
   </si>
@@ -42,44 +50,59 @@
   </si>
   <si>
     <t>Notas</t>
+  </si>
+  <si>
+    <t>Cristian</t>
+  </si>
+  <si>
+    <t>Candioti</t>
+  </si>
+  <si>
+    <t>criss_3030@hotmail.com</t>
+  </si>
+  <si>
+    <t>3425143652</t>
+  </si>
+  <si>
+    <t>Rosario</t>
+  </si>
+  <si>
+    <t>J.R. Viñas 9753</t>
+  </si>
+  <si>
+    <t>El cliente compra pero debe money</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
       <name val="Arial"/>
-      <sz val="14.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
       <name val="Arial"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-      <color indexed="9"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="48"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -87,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,34 +119,50 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -138,13 +177,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -164,53 +209,400 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="3" max="3" width="9.2265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.76953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.31640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.75">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>17685390</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="B2:D4"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>